--- a/TestTime.xlsx
+++ b/TestTime.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17870"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
@@ -469,7 +469,7 @@
         <v>50</v>
       </c>
       <c r="H2">
-        <v>290</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/TestTime.xlsx
+++ b/TestTime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="2HGz" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>№</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>Task 3</t>
+  </si>
+  <si>
+    <t>P=1,N=100,M=100</t>
+  </si>
+  <si>
+    <t>Sorted</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Reverse</t>
   </si>
 </sst>
 </file>
@@ -367,40 +379,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>118</v>
+      </c>
+      <c r="D2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3">
+        <v>154</v>
+      </c>
+      <c r="C3">
+        <v>223</v>
+      </c>
+      <c r="D3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="B4">
+        <v>63</v>
+      </c>
+      <c r="C4">
+        <v>131</v>
+      </c>
+      <c r="D4">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -412,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/TestTime.xlsx
+++ b/TestTime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2HGz" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>№</t>
   </si>
@@ -50,18 +50,6 @@
   </si>
   <si>
     <t>Task 3</t>
-  </si>
-  <si>
-    <t>P=1,N=100,M=100</t>
-  </si>
-  <si>
-    <t>Sorted</t>
-  </si>
-  <si>
-    <t>Random</t>
-  </si>
-  <si>
-    <t>Reverse</t>
   </si>
 </sst>
 </file>
@@ -379,74 +367,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>70</v>
-      </c>
-      <c r="C2">
-        <v>118</v>
-      </c>
-      <c r="D2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>154</v>
-      </c>
-      <c r="C3">
-        <v>223</v>
-      </c>
-      <c r="D3">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>63</v>
-      </c>
-      <c r="C4">
-        <v>131</v>
-      </c>
-      <c r="D4">
-        <v>73</v>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -458,7 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/TestTime.xlsx
+++ b/TestTime.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="2HGz" sheetId="1" r:id="rId1"/>
-    <sheet name="800MGz" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -17,41 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
-  <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>Р</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Sorted, ms</t>
-  </si>
-  <si>
-    <t>Random, ms</t>
-  </si>
-  <si>
-    <t>Reverse,ms</t>
-  </si>
-  <si>
-    <t>Task 1</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
-  <si>
-    <t>Task 3</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -89,7 +53,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -367,112 +331,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>50</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="H2">
-        <v>350</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestTime.xlsx
+++ b/TestTime.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+  <si>
+    <t>1,100,100</t>
+  </si>
+  <si>
+    <t>Sorted,ms</t>
+  </si>
+  <si>
+    <t>Random,ms</t>
+  </si>
+  <si>
+    <t>Reverse, ms</t>
+  </si>
+  <si>
+    <t>task 1</t>
+  </si>
+  <si>
+    <t>task 2</t>
+  </si>
+  <si>
+    <t>task 3</t>
+  </si>
+  <si>
+    <t>1,500,500</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,7 +82,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,12 +360,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4083</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>11686</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>4090</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestTime.xlsx
+++ b/TestTime.xlsx
@@ -363,7 +363,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,12 +451,6 @@
       <c r="B7">
         <v>4083</v>
       </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -465,12 +459,6 @@
       <c r="B8">
         <v>11686</v>
       </c>
-      <c r="C8">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -478,12 +466,6 @@
       </c>
       <c r="B9">
         <v>4090</v>
-      </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/TestTime.xlsx
+++ b/TestTime.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>1,100,100</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>1,500,500</t>
+  </si>
+  <si>
+    <t>1,200,200</t>
+  </si>
+  <si>
+    <t>4,100,100</t>
   </si>
 </sst>
 </file>
@@ -360,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,6 +457,12 @@
       <c r="B7">
         <v>4083</v>
       </c>
+      <c r="C7">
+        <v>3530</v>
+      </c>
+      <c r="D7">
+        <v>4834</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -459,6 +471,12 @@
       <c r="B8">
         <v>11686</v>
       </c>
+      <c r="C8">
+        <v>12306</v>
+      </c>
+      <c r="D8">
+        <v>14467</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -466,6 +484,124 @@
       </c>
       <c r="B9">
         <v>4090</v>
+      </c>
+      <c r="C9">
+        <v>4960</v>
+      </c>
+      <c r="D9">
+        <v>6808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>85</v>
+      </c>
+      <c r="C12">
+        <v>105</v>
+      </c>
+      <c r="D12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>268</v>
+      </c>
+      <c r="C13">
+        <v>311</v>
+      </c>
+      <c r="D13">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>103</v>
+      </c>
+      <c r="C14">
+        <v>144</v>
+      </c>
+      <c r="D14">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>61</v>
+      </c>
+      <c r="C18">
+        <v>69</v>
+      </c>
+      <c r="D18">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>46</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/TestTime.xlsx
+++ b/TestTime.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>1,100,100</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>4,100,100</t>
+  </si>
+  <si>
+    <t>100,100,100</t>
+  </si>
+  <si>
+    <t>1,1,100000</t>
   </si>
 </sst>
 </file>
@@ -366,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,6 +610,118 @@
         <v>24</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>637</v>
+      </c>
+      <c r="C22">
+        <v>1154</v>
+      </c>
+      <c r="D22">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>1472</v>
+      </c>
+      <c r="C23">
+        <v>1756</v>
+      </c>
+      <c r="D23">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>707</v>
+      </c>
+      <c r="C24">
+        <v>1335</v>
+      </c>
+      <c r="D24">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>513</v>
+      </c>
+      <c r="C27">
+        <v>565</v>
+      </c>
+      <c r="D27">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>1464</v>
+      </c>
+      <c r="C28">
+        <v>1494</v>
+      </c>
+      <c r="D28">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>802</v>
+      </c>
+      <c r="C29">
+        <v>951</v>
+      </c>
+      <c r="D29">
+        <v>1074</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
